--- a/linear_regressions/thread_size/author_threshold/crypto_regression_metrics.xlsx
+++ b/linear_regressions/thread_size/author_threshold/crypto_regression_metrics.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snuzz\Documents\PhD\datasets\reddit_analyses\reddit_analyses\linear_regressions\thread_size\author_threshold\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BC95F-703D-495C-8A9C-2D41BBCD4F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,20 @@
     <sheet name="p1_mod7" sheetId="11" r:id="rId11"/>
     <sheet name="p1_mod8" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -267,8 +286,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,24 +342,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -375,7 +409,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -409,6 +443,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -443,9 +478,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -618,14 +654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -641,7 +677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -649,7 +685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -657,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,7 +701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -673,7 +709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -681,7 +717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -697,7 +733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -705,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -713,7 +749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -721,7 +757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -729,7 +765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -743,14 +779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -761,12 +797,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>3.043035644591132</v>
+        <v>3.0430356445911322</v>
       </c>
       <c r="C2">
         <v>0.1114061114307392</v>
@@ -775,88 +811,88 @@
         <v>1.185504973919509E-145</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B3">
-        <v>-0.006055588941794264</v>
+        <v>-6.0555889417942639E-3</v>
       </c>
       <c r="C3">
-        <v>0.004030556851098622</v>
+        <v>4.0305568510986224E-3</v>
       </c>
       <c r="D3">
-        <v>0.1331028028977279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.13310280289772791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B4">
-        <v>0.04181915756572602</v>
+        <v>4.1819157565726017E-2</v>
       </c>
       <c r="C4">
-        <v>0.01227815677671477</v>
+        <v>1.2278156776714771E-2</v>
       </c>
       <c r="D4">
-        <v>0.000668674782033068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6.6867478203306804E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B5">
-        <v>-0.08402645966192603</v>
+        <v>-8.4026459661926026E-2</v>
       </c>
       <c r="C5">
-        <v>0.07026412007725973</v>
+        <v>7.0264120077259726E-2</v>
       </c>
       <c r="D5">
-        <v>0.2318513940302719</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.23185139403027191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B6">
-        <v>-0.0323275233504853</v>
+        <v>-3.2327523350485297E-2</v>
       </c>
       <c r="C6">
-        <v>0.04316546791634851</v>
+        <v>4.316546791634851E-2</v>
       </c>
       <c r="D6">
-        <v>0.4539685086164439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.45396850861644389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B7">
-        <v>-0.4381488288967111</v>
+        <v>-0.43814882889671108</v>
       </c>
       <c r="C7">
-        <v>0.3474722634928654</v>
+        <v>0.34747226349286542</v>
       </c>
       <c r="D7">
-        <v>0.207429355784844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.20742935578484401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B8">
-        <v>0.02304077716543713</v>
+        <v>2.3040777165437131E-2</v>
       </c>
       <c r="C8">
-        <v>0.02259913264997481</v>
+        <v>2.2599132649974811E-2</v>
       </c>
       <c r="D8">
-        <v>0.3080345992775118</v>
+        <v>0.30803459927751181</v>
       </c>
     </row>
   </sheetData>
@@ -865,14 +901,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -883,7 +919,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -891,105 +927,105 @@
         <v>3.044824176544124</v>
       </c>
       <c r="C2">
-        <v>0.111446669287814</v>
+        <v>0.11144666928781399</v>
       </c>
       <c r="D2">
-        <v>1.053178946999622E-145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.0531789469996221E-145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B3">
-        <v>-0.02352842022213473</v>
+        <v>-2.3528420222134729E-2</v>
       </c>
       <c r="C3">
-        <v>0.03403983565519787</v>
+        <v>3.4039835655197873E-2</v>
       </c>
       <c r="D3">
-        <v>0.4894962845166542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.48949628451665422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B4">
-        <v>-0.005994372457936579</v>
+        <v>-5.9943724579365788E-3</v>
       </c>
       <c r="C4">
-        <v>0.004031910096979409</v>
+        <v>4.0319100969794094E-3</v>
       </c>
       <c r="D4">
         <v>0.1371994052959955</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B5">
-        <v>0.04202895723770589</v>
+        <v>4.2028957237705888E-2</v>
       </c>
       <c r="C5">
-        <v>0.01228306646007963</v>
+        <v>1.2283066460079629E-2</v>
       </c>
       <c r="D5">
-        <v>0.0006313465658933323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6.3134656589333227E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B6">
-        <v>-0.08494452614961015</v>
+        <v>-8.494452614961015E-2</v>
       </c>
       <c r="C6">
-        <v>0.07028330324429266</v>
+        <v>7.0283303244292661E-2</v>
       </c>
       <c r="D6">
-        <v>0.226919177566985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.22691917756698499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B7">
-        <v>-0.03151423539685481</v>
+        <v>-3.1514235396854808E-2</v>
       </c>
       <c r="C7">
-        <v>0.04318557406713713</v>
+        <v>4.3185574067137127E-2</v>
       </c>
       <c r="D7">
-        <v>0.4656109952652924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.46561099526529243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B8">
-        <v>-0.4404180449718497</v>
+        <v>-0.44041804497184972</v>
       </c>
       <c r="C8">
-        <v>0.3475205662552063</v>
+        <v>0.34752056625520628</v>
       </c>
       <c r="D8">
-        <v>0.2051493447727483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.20514934477274829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B9">
-        <v>0.02257843971350651</v>
+        <v>2.257843971350651E-2</v>
       </c>
       <c r="C9">
-        <v>0.02261116138616494</v>
+        <v>2.2611161386164941E-2</v>
       </c>
       <c r="D9">
         <v>0.3180986947867932</v>
@@ -1001,14 +1037,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1019,12 +1055,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>3.043045263012094</v>
+        <v>3.0430452630120941</v>
       </c>
       <c r="C2">
         <v>0.1128534419502122</v>
@@ -1033,116 +1069,116 @@
         <v>2.235662037892657E-142</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B3">
-        <v>-0.02347265828402172</v>
+        <v>-2.347265828402172E-2</v>
       </c>
       <c r="C3">
-        <v>0.03405041678050123</v>
+        <v>3.4050416780501233E-2</v>
       </c>
       <c r="D3">
-        <v>0.4906608198970646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.49066081989706462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B4">
-        <v>0.01075382586834572</v>
+        <v>1.075382586834572E-2</v>
       </c>
       <c r="C4">
         <v>0.1066235819207821</v>
       </c>
       <c r="D4">
-        <v>0.9196706109414605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.91967061094146052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B5">
-        <v>-0.006017161733390268</v>
+        <v>-6.0171617333902678E-3</v>
       </c>
       <c r="C5">
-        <v>0.004038957031459942</v>
+        <v>4.0389570314599424E-3</v>
       </c>
       <c r="D5">
         <v>0.1363958635323386</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B6">
-        <v>0.04204348842096223</v>
+        <v>4.2043488420962227E-2</v>
       </c>
       <c r="C6">
-        <v>0.012286109628517</v>
+        <v>1.2286109628517001E-2</v>
       </c>
       <c r="D6">
-        <v>0.000630575298846962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>6.3057529884696201E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B7">
-        <v>-0.08499357723110713</v>
+        <v>-8.4993577231107134E-2</v>
       </c>
       <c r="C7">
-        <v>0.07029756458151455</v>
+        <v>7.0297564581514552E-2</v>
       </c>
       <c r="D7">
-        <v>0.2267453351307467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.22674533513074671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B8">
-        <v>-0.03152239816635291</v>
+        <v>-3.1522398166352911E-2</v>
       </c>
       <c r="C8">
-        <v>0.04319337905877031</v>
+        <v>4.3193379058770312E-2</v>
       </c>
       <c r="D8">
-        <v>0.4655761031656325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.46557610316563253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B9">
-        <v>-0.441494721412256</v>
+        <v>-0.44149472141225599</v>
       </c>
       <c r="C9">
-        <v>0.3477466569626957</v>
+        <v>0.34774665696269569</v>
       </c>
       <c r="D9">
-        <v>0.2043385366619968</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.20433853666199681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B10">
-        <v>0.02255694492342574</v>
+        <v>2.2556944923425741E-2</v>
       </c>
       <c r="C10">
-        <v>0.02261621240283606</v>
+        <v>2.261621240283606E-2</v>
       </c>
       <c r="D10">
-        <v>0.3186676489131213</v>
+        <v>0.31866764891312133</v>
       </c>
     </row>
   </sheetData>
@@ -1151,14 +1187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1178,7 +1214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1192,13 +1228,13 @@
         <v>37</v>
       </c>
       <c r="E2">
-        <v>0.004096549330554144</v>
+        <v>4.0965493305541436E-3</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1212,13 +1248,13 @@
         <v>38</v>
       </c>
       <c r="E3">
-        <v>0.005272499406173359</v>
+        <v>5.2724994061733588E-3</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1232,13 +1268,13 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>0.006167618253788532</v>
+        <v>6.1676182537885316E-3</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1252,13 +1288,13 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>0.006491580653472773</v>
+        <v>6.4915806534727727E-3</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1272,13 +1308,13 @@
         <v>41</v>
       </c>
       <c r="E6">
-        <v>0.0067414575539676</v>
+        <v>6.7414575539676003E-3</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1292,13 +1328,13 @@
         <v>42</v>
       </c>
       <c r="E7">
-        <v>0.00694275445425363</v>
+        <v>6.9427544542536301E-3</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1312,13 +1348,13 @@
         <v>43</v>
       </c>
       <c r="E8">
-        <v>0.007114251928429072</v>
+        <v>7.1142519284290717E-3</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1332,7 +1368,7 @@
         <v>44</v>
       </c>
       <c r="E9">
-        <v>0.007117904695733923</v>
+        <v>7.1179046957339231E-3</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
@@ -1344,14 +1380,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1365,7 +1403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1373,13 +1411,13 @@
         <v>56</v>
       </c>
       <c r="C2">
-        <v>0.004096549330554144</v>
+        <v>4.0965493305541436E-3</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1387,13 +1425,13 @@
         <v>57</v>
       </c>
       <c r="C3">
-        <v>0.005272499406173359</v>
+        <v>5.2724994061733588E-3</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1401,13 +1439,13 @@
         <v>58</v>
       </c>
       <c r="C4">
-        <v>0.006167618253788532</v>
+        <v>6.1676182537885316E-3</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1415,13 +1453,13 @@
         <v>59</v>
       </c>
       <c r="C5">
-        <v>0.006491580653472995</v>
+        <v>6.4915806534729947E-3</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1429,13 +1467,13 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.006741457553967711</v>
+        <v>6.7414575539677113E-3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1443,13 +1481,13 @@
         <v>61</v>
       </c>
       <c r="C7">
-        <v>0.006942754454253519</v>
+        <v>6.9427544542535191E-3</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1457,13 +1495,13 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <v>0.007114251928428628</v>
+        <v>7.1142519284286276E-3</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1471,9 +1509,19 @@
         <v>63</v>
       </c>
       <c r="C9">
-        <v>0.007117904695733701</v>
+        <v>7.1179046957337011E-3</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <f>MAX(C2:C9)</f>
+        <v>7.1179046957337011E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <f>MAX(D2:D9)</f>
         <v>0</v>
       </c>
     </row>
@@ -1483,14 +1531,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1504,8 +1554,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1518,8 +1568,8 @@
         <v>760</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
@@ -1539,14 +1589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1557,32 +1607,32 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.928174426957358</v>
+        <v>2.9281744269573582</v>
       </c>
       <c r="C2">
-        <v>0.04553002575736662</v>
+        <v>4.5530025757366623E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B3">
-        <v>0.04144317333492024</v>
+        <v>4.1443173334920237E-2</v>
       </c>
       <c r="C3">
-        <v>0.01227314636183085</v>
+        <v>1.227314636183085E-2</v>
       </c>
       <c r="D3">
-        <v>0.0007436286669012018</v>
+        <v>7.4362866690120177E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1591,14 +1641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1609,35 +1659,35 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>2.985379801227407</v>
+        <v>2.9853798012274071</v>
       </c>
       <c r="C2">
-        <v>0.05540985969081531</v>
+        <v>5.5409859690815307E-2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B3">
-        <v>0.04215802742134376</v>
+        <v>4.2158027421343759E-2</v>
       </c>
       <c r="C3">
-        <v>0.01227446743491111</v>
+        <v>1.227446743491111E-2</v>
       </c>
       <c r="D3">
-        <v>0.0006021256240146472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>6.0212562401464715E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -1645,10 +1695,10 @@
         <v>-0.5815654391208227</v>
       </c>
       <c r="C4">
-        <v>0.3213201395930552</v>
+        <v>0.32132013959305522</v>
       </c>
       <c r="D4">
-        <v>0.07041567127009568</v>
+        <v>7.0415671270095681E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1657,14 +1707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1675,60 +1725,60 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>3.066001212949604</v>
+        <v>3.0660012129496041</v>
       </c>
       <c r="C2">
-        <v>0.07532510554436525</v>
+        <v>7.5325105544365251E-2</v>
       </c>
       <c r="D2">
-        <v>2.490794623550229E-284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>2.4907946235502289E-284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B3">
-        <v>-0.006352060447056645</v>
+        <v>-6.3520604470566448E-3</v>
       </c>
       <c r="C3">
-        <v>0.004021526718203487</v>
+        <v>4.0215267182034872E-3</v>
       </c>
       <c r="D3">
         <v>0.1143322311336597</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B4">
-        <v>0.04183820342639002</v>
+        <v>4.1838203426390018E-2</v>
       </c>
       <c r="C4">
-        <v>0.01227282836629176</v>
+        <v>1.227282836629176E-2</v>
       </c>
       <c r="D4">
-        <v>0.0006613110566343836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6.6131105663438364E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B5">
-        <v>-0.5785276803289049</v>
+        <v>-0.57852768032890489</v>
       </c>
       <c r="C5">
-        <v>0.321239260743574</v>
+        <v>0.32123926074357401</v>
       </c>
       <c r="D5">
-        <v>0.07182349531667136</v>
+        <v>7.1823495316671357E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1737,14 +1787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1755,74 +1805,74 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>3.104889640243743</v>
+        <v>3.1048896402437429</v>
       </c>
       <c r="C2">
-        <v>0.08572626798008541</v>
+        <v>8.572626798008541E-2</v>
       </c>
       <c r="D2">
-        <v>1.768030192221348E-235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.7680301922213479E-235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B3">
-        <v>-0.006113743227119602</v>
+        <v>-6.1137432271196022E-3</v>
       </c>
       <c r="C3">
-        <v>0.004029410138321214</v>
+        <v>4.0294101383212136E-3</v>
       </c>
       <c r="D3">
-        <v>0.1293101697726486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.12931016977264859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B4">
-        <v>0.04189626845415295</v>
+        <v>4.1896268454152952E-2</v>
       </c>
       <c r="C4">
-        <v>0.01227319557365509</v>
+        <v>1.2273195573655089E-2</v>
       </c>
       <c r="D4">
-        <v>0.0006502275845066259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6.502275845066259E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B5">
-        <v>-0.05875031027918392</v>
+        <v>-5.8750310279183919E-2</v>
       </c>
       <c r="C5">
-        <v>0.06182827914270503</v>
+        <v>6.1828279142705028E-2</v>
       </c>
       <c r="D5">
-        <v>0.3420846963953696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.34208469639536959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B6">
-        <v>-0.5862381147888204</v>
+        <v>-0.58623811478882037</v>
       </c>
       <c r="C6">
-        <v>0.3213473556664836</v>
+        <v>0.32134735566648359</v>
       </c>
       <c r="D6">
-        <v>0.06821250369003037</v>
+        <v>6.8212503690030374E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1831,14 +1881,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1849,63 +1899,63 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B2">
-        <v>3.045601652288924</v>
+        <v>3.0456016522889242</v>
       </c>
       <c r="C2">
         <v>0.1113445788474616</v>
       </c>
       <c r="D2">
-        <v>5.14231045868814E-146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>5.1423104586881399E-146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B3">
-        <v>-0.006055421626080975</v>
+        <v>-6.0554216260809753E-3</v>
       </c>
       <c r="C3">
-        <v>0.004030237127083762</v>
+        <v>4.0302371270837618E-3</v>
       </c>
       <c r="D3">
-        <v>0.133082716306907</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.13308271630690699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B4">
-        <v>0.04200786945172986</v>
+        <v>4.2007869451729858E-2</v>
       </c>
       <c r="C4">
-        <v>0.01227459715118488</v>
+        <v>1.2274597151184881E-2</v>
       </c>
       <c r="D4">
-        <v>0.0006298552185195696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6.2985521851956965E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B5">
-        <v>-0.08645900163026407</v>
+        <v>-8.6459001630264071E-2</v>
       </c>
       <c r="C5">
-        <v>0.07018343905970761</v>
+        <v>7.0183439059707614E-2</v>
       </c>
       <c r="D5">
-        <v>0.2180909574423684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.21809095744236839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -1913,24 +1963,24 @@
         <v>-0.5039490287364492</v>
       </c>
       <c r="C6">
-        <v>0.3361542264323784</v>
+        <v>0.33615422643237841</v>
       </c>
       <c r="D6">
         <v>0.1339461202465648</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B7">
-        <v>0.01800188486610613</v>
+        <v>1.8001884866106131E-2</v>
       </c>
       <c r="C7">
-        <v>0.02157262708852447</v>
+        <v>2.1572627088524469E-2</v>
       </c>
       <c r="D7">
-        <v>0.4040836343445128</v>
+        <v>0.40408363434451278</v>
       </c>
     </row>
   </sheetData>
